--- a/streamlitapp/updated_file.xlsx
+++ b/streamlitapp/updated_file.xlsx
@@ -642,14 +642,12 @@
       <c r="U2" t="inlineStr">
         <is>
           <t>Dear valued patient,
-We want to take a moment to express our gratitude and appreciation for your commitment to managing your diabetes mellitus through the use of insulin and cozaar, a medication used in the therapeutic area of endocrinology.
-Your diligent adherence to your medication regimen is a critical step in managing your condition and preventing future complications. By continuing your treatment with these medications, you are investing in your health and helping to avoid the costly consequences that can arise from uncontrolled diabetes.
-However, we understand that there may be times when you consider discontinuing your medication. While it's essential to consult with your healthcare provider before making any changes to your treatment plan, we want to provide you with some detailed information about the potential risks involved in discontinuing your medication.
-Firstly, stopping insulin therapy can lead to a rapid increase in blood sugar levels, which can result in symptoms such as increased thirst, frequent urination, and blurred vision. In severe cases, this can lead to diabetic ketoacidosis, a potentially life-threatening condition that requires urgent medical attention.
-Additionally, sudden discontinuation of cozaar can result in a spike in blood pressure levels, which can increase the risk of heart attacks, strokes, and kidney damage. This is because cozaar works by blocking the body's production of a hormone called aldosterone, which helps to regulate blood pressure. Without this medication, your body may continue to produce aldosterone, leading to an increase in blood pressure.
-We understand that there may be various reasons for considering discontinuation, such as concerns about side effects, cost, or lifestyle factors. However, we strongly recommend that you speak with your healthcare provider before making any decisions. They can provide you with personalized advice based on your individual circumstances and help you weigh the potential risks and benefits of continuing or discontinuing your medication.
-In the meantime, we want to commend you on your progress and encourage you to continue your treatment plan. By managing your diabetes mellitus with insulin and cozaar, you are taking a significant step towards improving your overall health and preventing complications.
-Remember, your healthcare provider is always here to support and guide you on your journey towards better health. If you have any questions or concerns, please don't hesitate to</t>
+We want to take a moment to express our deepest appreciation for your commitment to managing your diabetes mellitus through the use of insulin and Cozaar (losartan potassium). Your dedication to your health is inspiring, and we are proud to be a part of your care team.
+Insulin is a critical medication for managing diabetes mellitus, as it helps to regulate blood sugar levels. Without insulin, your body is unable to properly use the sugar in your bloodstream, which can lead to serious health complications such as nerve damage, kidney disease, and blindness. Continuing to take your insulin as prescribed is essential to avoiding these future expenses and preventing further damage to your body.
+Cozaar (losartan potassium) is another important medication for managing diabetes mellitus, as it helps to lower blood pressure and reduce the risk of heart disease. High blood pressure is a common complication of diabetes, and Cozaar (losartan potassium) helps to keep your blood pressure at a healthy level. Discontinuing Cozaar (losartan potassium) can lead to an increased risk of heart disease and other cardiovascular complications, which can be costly and dangerous.
+It's essential to understand that discontinuing either insulin or Cozaar (losartan potassium) without consulting your healthcare provider can lead to serious health complications. Suddenly stopping insulin can lead to a condition called diabetic ketoacidosis, which is a potentially life-threatening condition that can require hospitalization. Rapidly stopping Cozaar (losartan potassium) can also lead to an increase in blood pressure, which can increase the risk of heart disease and stroke.
+We encourage you to continue taking your insulin and Cozaar (losartan potassium) as prescribed and to always consult your healthcare provider before making any changes to your medication regimen. It's essential to work closely with your healthcare provider to ensure that your diabetes mellitus is effectively managed and to avoid any unnecessary health complications or expenses.
+We want you to know that we value your progress and are committed to supporting you in your health journey. Your dedication to your health is a testament to your strength and resilience, and we are proud to be a part of your</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -659,17 +657,18 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dear valued patient,
-We want to remind you of the importance of consistently taking UNIVASC as prescribed, especially if you have diabetes mellitus and are currently using insulin. Discontinuation of UNIVASC can lead to negative effects on your health, worsening your symptoms and increasing healthcare costs.
-If you stop taking UNIVASC, your blood pressure may rise, putting additional strain on your heart and blood vessels. This can lead to complications such as heart attack, stroke, and kidney disease. High blood pressure can also make it more difficult to manage your diabetes, as it can affect the way your body responds to insulin.
-In addition to these health risks, discontinuation of UNIVASC may result in increased healthcare costs. If your blood pressure becomes too high, you may require more frequent doctor's visits, tests, and medications. This can add up quickly and put a strain on your budget.
-To help you manage your medication intake, we suggest setting reminders for when to take your medication, tracking your medication in a planner or app, and speaking with your healthcare provider about any concerns or questions you may have.
-We understand that medication costs can be a concern, and we want to help you manage them. You may be eligible for assistance programs or insurance coverage that can help lower your out-of-pocket expenses. We encourage you to speak with your healthcare provider or contact our customer service team for more information.
-To learn more about diabetes mellitus and your treatment, we encourage you to educate yourself through reliable sources such as reputable healthcare organizations or your healthcare provider. This can help you better understand your condition and how your medication works to manage it.
-We want to emphasize the importance of regular check-ups and open communication with your healthcare provider. This can help ensure that your medication plan is working effectively for you and identify any potential concerns or adjustments that may be necessary.
-As a valued patient, we want to offer you a non-affective discount and goodies from our company as a token of our support. We believe in the power of our product, MOEXIPRIL HCL, and its ability to help manage your condition.
-Remember, staying committed to your treatment plan can lead to better health outcomes and help you avoid future expenses associated with complications. We are here to support and engage with you every step of the way.
-</t>
+          <t>Dear valued patient,
+We understand that managing diabetes and high blood pressure can be a challenge, but we want to reassure you that continuing your medication, including INSULIN and UNIVASC, is crucial for your long-term health.
+Discontinuing UNIVASC can lead to increased blood pressure and subsequent health complications such as stroke, heart attack, and kidney damage. Additionally, it may result in higher healthcare costs as untreated hypertension can lead to more frequent doctor's visits and hospitalizations.
+To help you manage your medication intake, we recommend setting reminders, such as using a pill organizer or downloading a medication tracking app. You may also consider discussing a dosage adjustment with your healthcare provider to find a regimen that works best for you.
+Managing medication costs can be challenging, but we suggest exploring assistance programs and insurance coverage options. Our company, [Company Name], offers a discount program for eligible patients, and we can provide more information upon request.
+It's crucial to educate yourself about diabetes and high blood pressure management to make informed decisions about your treatment plan. We encourage you to consult your healthcare provider if you have any questions or concerns.
+Regular check-ups and open communication with your healthcare provider are vital for monitoring your condition and adjusting your treatment plan as needed. We want to emphasize the importance of staying committed to your treatment plan for better health outcomes.
+As a token of our support, we would like to offer you a free sample of MOEXIPRIL HCL, our specialty pharma product. This medication can help manage hypertension and may be a helpful addition to your treatment plan.
+Please don't hesitate to reach out to us if you have any questions or concerns. We're here to support you every step of the way.
+Best regards,
+[Your Name]
+[Company Name]</t>
         </is>
       </c>
     </row>
@@ -765,14 +764,12 @@
       <c r="U3" t="inlineStr">
         <is>
           <t>Dear valued patient,
-We want to take a moment to express our gratitude and appreciation for your commitment to managing your diabetes mellitus through the use of insulin and cozaar, a medication used in the therapeutic area of endocrinology.
-Your diligent adherence to your medication regimen is a critical step in managing your condition and preventing future complications. By continuing your treatment with these medications, you are investing in your health and helping to avoid the costly consequences that can arise from uncontrolled diabetes.
-However, we understand that there may be times when you consider discontinuing your medication. While it's essential to consult with your healthcare provider before making any changes to your treatment plan, we want to provide you with some detailed information about the potential risks involved in discontinuing your medication.
-Firstly, stopping insulin therapy can lead to a rapid increase in blood sugar levels, which can result in symptoms such as increased thirst, frequent urination, and blurred vision. In severe cases, this can lead to diabetic ketoacidosis, a potentially life-threatening condition that requires urgent medical attention.
-Additionally, sudden discontinuation of cozaar can result in a spike in blood pressure levels, which can increase the risk of heart attacks, strokes, and kidney damage. This is because cozaar works by blocking the body's production of a hormone called aldosterone, which helps to regulate blood pressure. Without this medication, your body may continue to produce aldosterone, leading to an increase in blood pressure.
-We understand that there may be various reasons for considering discontinuation, such as concerns about side effects, cost, or lifestyle factors. However, we strongly recommend that you speak with your healthcare provider before making any decisions. They can provide you with personalized advice based on your individual circumstances and help you weigh the potential risks and benefits of continuing or discontinuing your medication.
-In the meantime, we want to commend you on your progress and encourage you to continue your treatment plan. By managing your diabetes mellitus with insulin and cozaar, you are taking a significant step towards improving your overall health and preventing complications.
-Remember, your healthcare provider is always here to support and guide you on your journey towards better health. If you have any questions or concerns, please don't hesitate to</t>
+We want to take a moment to express our deepest appreciation for your commitment to managing your diabetes mellitus through the use of insulin and Cozaar (losartan potassium). Your dedication to your health is inspiring, and we are proud to be a part of your care team.
+Insulin is a critical medication for managing diabetes mellitus, as it helps to regulate blood sugar levels. Without insulin, your body is unable to properly use the sugar in your bloodstream, which can lead to serious health complications such as nerve damage, kidney disease, and blindness. Continuing to take your insulin as prescribed is essential to avoiding these future expenses and preventing further damage to your body.
+Cozaar (losartan potassium) is another important medication for managing diabetes mellitus, as it helps to lower blood pressure and reduce the risk of heart disease. High blood pressure is a common complication of diabetes, and Cozaar (losartan potassium) helps to keep your blood pressure at a healthy level. Discontinuing Cozaar (losartan potassium) can lead to an increased risk of heart disease and other cardiovascular complications, which can be costly and dangerous.
+It's essential to understand that discontinuing either insulin or Cozaar (losartan potassium) without consulting your healthcare provider can lead to serious health complications. Suddenly stopping insulin can lead to a condition called diabetic ketoacidosis, which is a potentially life-threatening condition that can require hospitalization. Rapidly stopping Cozaar (losartan potassium) can also lead to an increase in blood pressure, which can increase the risk of heart disease and stroke.
+We encourage you to continue taking your insulin and Cozaar (losartan potassium) as prescribed and to always consult your healthcare provider before making any changes to your medication regimen. It's essential to work closely with your healthcare provider to ensure that your diabetes mellitus is effectively managed and to avoid any unnecessary health complications or expenses.
+We want you to know that we value your progress and are committed to supporting you in your health journey. Your dedication to your health is a testament to your strength and resilience, and we are proud to be a part of your</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -782,17 +779,18 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dear valued patient,
-We want to remind you of the importance of consistently taking UNIVASC as prescribed, especially if you have diabetes mellitus and are currently using insulin. Discontinuation of UNIVASC can lead to negative effects on your health, worsening your symptoms and increasing healthcare costs.
-If you stop taking UNIVASC, your blood pressure may rise, putting additional strain on your heart and blood vessels. This can lead to complications such as heart attack, stroke, and kidney disease. High blood pressure can also make it more difficult to manage your diabetes, as it can affect the way your body responds to insulin.
-In addition to these health risks, discontinuation of UNIVASC may result in increased healthcare costs. If your blood pressure becomes too high, you may require more frequent doctor's visits, tests, and medications. This can add up quickly and put a strain on your budget.
-To help you manage your medication intake, we suggest setting reminders for when to take your medication, tracking your medication in a planner or app, and speaking with your healthcare provider about any concerns or questions you may have.
-We understand that medication costs can be a concern, and we want to help you manage them. You may be eligible for assistance programs or insurance coverage that can help lower your out-of-pocket expenses. We encourage you to speak with your healthcare provider or contact our customer service team for more information.
-To learn more about diabetes mellitus and your treatment, we encourage you to educate yourself through reliable sources such as reputable healthcare organizations or your healthcare provider. This can help you better understand your condition and how your medication works to manage it.
-We want to emphasize the importance of regular check-ups and open communication with your healthcare provider. This can help ensure that your medication plan is working effectively for you and identify any potential concerns or adjustments that may be necessary.
-As a valued patient, we want to offer you a non-affective discount and goodies from our company as a token of our support. We believe in the power of our product, MOEXIPRIL HCL, and its ability to help manage your condition.
-Remember, staying committed to your treatment plan can lead to better health outcomes and help you avoid future expenses associated with complications. We are here to support and engage with you every step of the way.
-</t>
+          <t>Dear valued patient,
+We understand that managing diabetes and high blood pressure can be a challenge, but we want to reassure you that continuing your medication, including INSULIN and UNIVASC, is crucial for your long-term health.
+Discontinuing UNIVASC can lead to increased blood pressure and subsequent health complications such as stroke, heart attack, and kidney damage. Additionally, it may result in higher healthcare costs as untreated hypertension can lead to more frequent doctor's visits and hospitalizations.
+To help you manage your medication intake, we recommend setting reminders, such as using a pill organizer or downloading a medication tracking app. You may also consider discussing a dosage adjustment with your healthcare provider to find a regimen that works best for you.
+Managing medication costs can be challenging, but we suggest exploring assistance programs and insurance coverage options. Our company, [Company Name], offers a discount program for eligible patients, and we can provide more information upon request.
+It's crucial to educate yourself about diabetes and high blood pressure management to make informed decisions about your treatment plan. We encourage you to consult your healthcare provider if you have any questions or concerns.
+Regular check-ups and open communication with your healthcare provider are vital for monitoring your condition and adjusting your treatment plan as needed. We want to emphasize the importance of staying committed to your treatment plan for better health outcomes.
+As a token of our support, we would like to offer you a free sample of MOEXIPRIL HCL, our specialty pharma product. This medication can help manage hypertension and may be a helpful addition to your treatment plan.
+Please don't hesitate to reach out to us if you have any questions or concerns. We're here to support you every step of the way.
+Best regards,
+[Your Name]
+[Company Name]</t>
         </is>
       </c>
     </row>
